--- a/Ideas/Cards.xlsx
+++ b/Ideas/Cards.xlsx
@@ -12,7 +12,8 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Cards " sheetId="1" r:id="rId1"/>
+    <sheet name="Sort by Rarity" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
   <si>
     <t>Structure</t>
   </si>
@@ -234,6 +235,63 @@
   </si>
   <si>
     <t>Calculator User</t>
+  </si>
+  <si>
+    <t>God Cards</t>
+  </si>
+  <si>
+    <t>Thor</t>
+  </si>
+  <si>
+    <t>Zeus</t>
+  </si>
+  <si>
+    <t>Posideon</t>
+  </si>
+  <si>
+    <t>Infernal Goddess</t>
+  </si>
+  <si>
+    <t>King Tower Cards</t>
+  </si>
+  <si>
+    <t>The Emperor</t>
+  </si>
+  <si>
+    <t>Governor Margrave</t>
+  </si>
+  <si>
+    <t>Apollo</t>
+  </si>
+  <si>
+    <t>Hand Cannon</t>
+  </si>
+  <si>
+    <t>Watchtower</t>
+  </si>
+  <si>
+    <t>Beacon of Darkness</t>
+  </si>
+  <si>
+    <t>Mortar Station</t>
+  </si>
+  <si>
+    <t>Sniper Perch</t>
+  </si>
+  <si>
+    <t>Signal Broadcast</t>
+  </si>
+  <si>
+    <t>Grand Cannon</t>
+  </si>
+  <si>
+    <t>The Wise One</t>
+  </si>
+  <si>
+    <t>Harmonic Convergence</t>
+  </si>
+  <si>
+    <t>Dissonant Divergence</t>
   </si>
 </sst>
 </file>
@@ -558,23 +616,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -590,8 +650,14 @@
       <c r="E1" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -607,8 +673,14 @@
       <c r="E3" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -624,8 +696,14 @@
       <c r="E4" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F4" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
@@ -641,8 +719,14 @@
       <c r="E5" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F5" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>29</v>
       </c>
@@ -658,16 +742,22 @@
       <c r="E6" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F6" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="D7" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="E7" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>31</v>
       </c>
@@ -681,7 +771,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>42</v>
       </c>
@@ -695,7 +785,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>64</v>
       </c>
@@ -709,7 +799,10 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>80</v>
+      </c>
       <c r="B11" s="1" t="s">
         <v>24</v>
       </c>
@@ -720,12 +813,18 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="E12" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>82</v>
+      </c>
       <c r="B13" s="1" t="s">
         <v>10</v>
       </c>
@@ -736,7 +835,10 @@
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="B14" s="1" t="s">
         <v>9</v>
       </c>
@@ -747,7 +849,10 @@
         <v>63</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>84</v>
+      </c>
       <c r="B15" s="1" t="s">
         <v>32</v>
       </c>
@@ -758,23 +863,37 @@
         <v>65</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="B16" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="E16" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E17" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="E18" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
         <v>14</v>
       </c>
@@ -782,7 +901,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
         <v>15</v>
       </c>
@@ -790,7 +909,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
         <v>33</v>
       </c>
@@ -798,7 +917,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
         <v>38</v>
       </c>
@@ -806,7 +925,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
         <v>39</v>
       </c>
@@ -814,7 +933,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
         <v>40</v>
       </c>
@@ -822,7 +941,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
         <v>41</v>
       </c>
@@ -834,4 +953,16 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Ideas/Cards.xlsx
+++ b/Ideas/Cards.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="105">
   <si>
     <t>Structure</t>
   </si>
@@ -78,9 +78,6 @@
     <t>Gryphon</t>
   </si>
   <si>
-    <t>Tesla Coil</t>
-  </si>
-  <si>
     <t>Dragon</t>
   </si>
   <si>
@@ -279,9 +276,6 @@
     <t>Sniper Perch</t>
   </si>
   <si>
-    <t>Signal Broadcast</t>
-  </si>
-  <si>
     <t>Grand Cannon</t>
   </si>
   <si>
@@ -292,6 +286,60 @@
   </si>
   <si>
     <t>Dissonant Divergence</t>
+  </si>
+  <si>
+    <t>Tier 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tier 2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tier 3 </t>
+  </si>
+  <si>
+    <t>Tier 4</t>
+  </si>
+  <si>
+    <t>Tier 5</t>
+  </si>
+  <si>
+    <t>Assassin</t>
+  </si>
+  <si>
+    <t>Mathematician</t>
+  </si>
+  <si>
+    <t>Praetorian</t>
+  </si>
+  <si>
+    <t>Archmage</t>
+  </si>
+  <si>
+    <t>Sniper</t>
+  </si>
+  <si>
+    <t>Goblin Chief</t>
+  </si>
+  <si>
+    <t>Kingslayer</t>
+  </si>
+  <si>
+    <t>Surgeon General</t>
+  </si>
+  <si>
+    <t>Alchemist</t>
+  </si>
+  <si>
+    <t>Double Agent</t>
+  </si>
+  <si>
+    <t>Chief Thief</t>
+  </si>
+  <si>
+    <t>Human Calculator</t>
+  </si>
+  <si>
+    <t>Princess Krivalae</t>
   </si>
 </sst>
 </file>
@@ -618,8 +666,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -642,19 +690,19 @@
         <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -665,19 +713,19 @@
         <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -688,42 +736,42 @@
         <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>16</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -731,19 +779,22 @@
         <v>29</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -751,52 +802,52 @@
         <v>30</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -804,13 +855,13 @@
         <v>80</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -818,7 +869,7 @@
         <v>81</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -829,10 +880,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -843,43 +894,37 @@
         <v>9</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>84</v>
-      </c>
       <c r="B15" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>85</v>
-      </c>
       <c r="B16" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E17" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
@@ -887,10 +932,10 @@
         <v>13</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.2">
@@ -898,7 +943,7 @@
         <v>14</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.2">
@@ -906,47 +951,47 @@
         <v>15</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -957,12 +1002,322 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B16" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B17" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B19" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B21" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C22" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C23" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C24" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C25" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C26" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C27" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Ideas/Cards.xlsx
+++ b/Ideas/Cards.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kilo\Desktop\Personal Projects\Battle Arena Game\MBA\Ideas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kilo\Desktop\Personal Projects\Monster Battle Arena - Netbeans Pull and Save\Pull\Ideas\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="106">
   <si>
     <t>Structure</t>
   </si>
@@ -234,9 +234,6 @@
     <t>Calculator User</t>
   </si>
   <si>
-    <t>God Cards</t>
-  </si>
-  <si>
     <t>Thor</t>
   </si>
   <si>
@@ -340,6 +337,12 @@
   </si>
   <si>
     <t>Princess Krivalae</t>
+  </si>
+  <si>
+    <t>Legion Commander Strasa</t>
+  </si>
+  <si>
+    <t>Captain Iliumae</t>
   </si>
 </sst>
 </file>
@@ -664,10 +667,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -677,12 +680,11 @@
     <col min="3" max="3" width="23.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="1"/>
+    <col min="6" max="6" width="28.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -699,13 +701,10 @@
         <v>19</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -722,13 +721,10 @@
         <v>20</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -745,13 +741,10 @@
         <v>27</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>28</v>
       </c>
@@ -768,13 +761,10 @@
         <v>42</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>29</v>
       </c>
@@ -791,24 +781,24 @@
         <v>33</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F7" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>41</v>
       </c>
@@ -821,8 +811,11 @@
       <c r="E8" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F8" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>63</v>
       </c>
@@ -836,9 +829,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>8</v>
@@ -850,9 +843,9 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>23</v>
@@ -864,17 +857,17 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>10</v>
@@ -886,9 +879,9 @@
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>9</v>
@@ -900,7 +893,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
         <v>31</v>
       </c>
@@ -911,7 +904,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
         <v>24</v>
       </c>
@@ -919,12 +912,12 @@
         <v>52</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E17" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
@@ -935,7 +928,7 @@
         <v>45</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.2">
@@ -1020,19 +1013,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -1046,10 +1039,10 @@
         <v>4</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -1063,10 +1056,10 @@
         <v>8</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -1080,10 +1073,10 @@
         <v>31</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -1097,10 +1090,10 @@
         <v>15</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -1111,10 +1104,10 @@
         <v>38</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -1128,7 +1121,7 @@
         <v>54</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -1142,7 +1135,7 @@
         <v>56</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -1156,7 +1149,7 @@
         <v>50</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -1170,7 +1163,7 @@
         <v>51</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -1181,10 +1174,10 @@
         <v>66</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -1242,10 +1235,10 @@
         <v>41</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.2">
@@ -1256,12 +1249,12 @@
         <v>46</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>47</v>
@@ -1280,7 +1273,7 @@
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>61</v>
@@ -1298,22 +1291,22 @@
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/Ideas/Cards.xlsx
+++ b/Ideas/Cards.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17726"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kilo\Desktop\Personal Projects\Monster Battle Arena - Netbeans Pull and Save\Pull\Ideas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Coleman\Desktop\MBA_repo\MBA\Ideas\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -364,12 +364,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -384,9 +390,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -669,8 +676,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -708,16 +715,16 @@
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F3" s="1" t="s">
@@ -728,19 +735,19 @@
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="2" t="s">
         <v>75</v>
       </c>
     </row>
@@ -748,13 +755,13 @@
       <c r="A5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E5" s="1" t="s">
@@ -768,19 +775,19 @@
       <c r="A6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="2" t="s">
         <v>103</v>
       </c>
     </row>
@@ -788,7 +795,7 @@
       <c r="A7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="2" t="s">
         <v>72</v>
       </c>
       <c r="E7" s="1" t="s">
@@ -802,7 +809,7 @@
       <c r="A8" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -819,13 +826,13 @@
       <c r="A9" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="2" t="s">
         <v>36</v>
       </c>
     </row>
@@ -833,7 +840,7 @@
       <c r="A10" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -847,7 +854,7 @@
       <c r="A11" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -869,10 +876,10 @@
       <c r="A13" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="2" t="s">
         <v>49</v>
       </c>
       <c r="E13" s="1" t="s">
@@ -883,10 +890,10 @@
       <c r="A14" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="2" t="s">
         <v>48</v>
       </c>
       <c r="E14" s="1" t="s">
@@ -894,10 +901,10 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="2" t="s">
         <v>50</v>
       </c>
       <c r="E15" s="1" t="s">
@@ -905,10 +912,10 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="2" t="s">
         <v>52</v>
       </c>
       <c r="E16" s="1" t="s">
@@ -921,10 +928,10 @@
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="2" t="s">
         <v>45</v>
       </c>
       <c r="E18" s="1" t="s">
@@ -932,31 +939,31 @@
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="2" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="2" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="2" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C23" s="1" t="s">
@@ -964,7 +971,7 @@
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C24" s="1" t="s">
@@ -972,7 +979,7 @@
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C25" s="1" t="s">
@@ -980,7 +987,7 @@
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C26" s="1" t="s">
@@ -998,7 +1005,7 @@
   <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
